--- a/Users List/User-Region.xlsx
+++ b/Users List/User-Region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\windows-client\windows-client\Users List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{011D1DA1-B745-44AB-8284-5B5C17F0C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65B67D-3B95-424B-B527-2E3649AB6EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1095" windowWidth="29040" windowHeight="15720" xr2:uid="{EA91A8AA-3C29-431F-B915-E15288A414B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="293">
   <si>
     <t>User name [userPrincipalName] Required</t>
   </si>
@@ -915,657 +915,6 @@
   </si>
   <si>
     <t>Region</t>
-  </si>
-  <si>
-    <t>Windows Password</t>
-  </si>
-  <si>
-    <t>dc01</t>
-  </si>
-  <si>
-    <t>dc02</t>
-  </si>
-  <si>
-    <t>dc03</t>
-  </si>
-  <si>
-    <t>dc04</t>
-  </si>
-  <si>
-    <t>dc05</t>
-  </si>
-  <si>
-    <t>dc06</t>
-  </si>
-  <si>
-    <t>dc07</t>
-  </si>
-  <si>
-    <t>dc08</t>
-  </si>
-  <si>
-    <t>dc09</t>
-  </si>
-  <si>
-    <t>dc10</t>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <t>dc12</t>
-  </si>
-  <si>
-    <t>dc13</t>
-  </si>
-  <si>
-    <t>dc14</t>
-  </si>
-  <si>
-    <t>dc15</t>
-  </si>
-  <si>
-    <t>dc16</t>
-  </si>
-  <si>
-    <t>dc17</t>
-  </si>
-  <si>
-    <t>dc18</t>
-  </si>
-  <si>
-    <t>dc19</t>
-  </si>
-  <si>
-    <t>dc20</t>
-  </si>
-  <si>
-    <t>dc21</t>
-  </si>
-  <si>
-    <t>dc22</t>
-  </si>
-  <si>
-    <t>dc23</t>
-  </si>
-  <si>
-    <t>dc24</t>
-  </si>
-  <si>
-    <t>dc25</t>
-  </si>
-  <si>
-    <t>dc26</t>
-  </si>
-  <si>
-    <t>dc27</t>
-  </si>
-  <si>
-    <t>dc28</t>
-  </si>
-  <si>
-    <t>dc29</t>
-  </si>
-  <si>
-    <t>dc30</t>
-  </si>
-  <si>
-    <t>dc31</t>
-  </si>
-  <si>
-    <t>dc32</t>
-  </si>
-  <si>
-    <t>dc33</t>
-  </si>
-  <si>
-    <t>dc34</t>
-  </si>
-  <si>
-    <t>dc35</t>
-  </si>
-  <si>
-    <t>dc36</t>
-  </si>
-  <si>
-    <t>dc37</t>
-  </si>
-  <si>
-    <t>dc38</t>
-  </si>
-  <si>
-    <t>dc39</t>
-  </si>
-  <si>
-    <t>dc40</t>
-  </si>
-  <si>
-    <t>dc41</t>
-  </si>
-  <si>
-    <t>dc42</t>
-  </si>
-  <si>
-    <t>dc43</t>
-  </si>
-  <si>
-    <t>dc44</t>
-  </si>
-  <si>
-    <t>dc45</t>
-  </si>
-  <si>
-    <t>dc46</t>
-  </si>
-  <si>
-    <t>dc47</t>
-  </si>
-  <si>
-    <t>dc48</t>
-  </si>
-  <si>
-    <t>dc49</t>
-  </si>
-  <si>
-    <t>dc50</t>
-  </si>
-  <si>
-    <t>dc51</t>
-  </si>
-  <si>
-    <t>dc52</t>
-  </si>
-  <si>
-    <t>dc53</t>
-  </si>
-  <si>
-    <t>dc54</t>
-  </si>
-  <si>
-    <t>dc55</t>
-  </si>
-  <si>
-    <t>dc56</t>
-  </si>
-  <si>
-    <t>dc57</t>
-  </si>
-  <si>
-    <t>dc58</t>
-  </si>
-  <si>
-    <t>dc59</t>
-  </si>
-  <si>
-    <t>dc60</t>
-  </si>
-  <si>
-    <t>dc61</t>
-  </si>
-  <si>
-    <t>dc62</t>
-  </si>
-  <si>
-    <t>dc63</t>
-  </si>
-  <si>
-    <t>dc64</t>
-  </si>
-  <si>
-    <t>dc65</t>
-  </si>
-  <si>
-    <t>dc66</t>
-  </si>
-  <si>
-    <t>dc67</t>
-  </si>
-  <si>
-    <t>dc68</t>
-  </si>
-  <si>
-    <t>dc69</t>
-  </si>
-  <si>
-    <t>dc70</t>
-  </si>
-  <si>
-    <t>dc71</t>
-  </si>
-  <si>
-    <t>win10-01</t>
-  </si>
-  <si>
-    <t>win10-02</t>
-  </si>
-  <si>
-    <t>win10-03</t>
-  </si>
-  <si>
-    <t>win10-04</t>
-  </si>
-  <si>
-    <t>win10-05</t>
-  </si>
-  <si>
-    <t>win10-06</t>
-  </si>
-  <si>
-    <t>win10-07</t>
-  </si>
-  <si>
-    <t>win10-08</t>
-  </si>
-  <si>
-    <t>win10-09</t>
-  </si>
-  <si>
-    <t>win10-10</t>
-  </si>
-  <si>
-    <t>win10-11</t>
-  </si>
-  <si>
-    <t>win10-12</t>
-  </si>
-  <si>
-    <t>win10-13</t>
-  </si>
-  <si>
-    <t>win10-14</t>
-  </si>
-  <si>
-    <t>win10-15</t>
-  </si>
-  <si>
-    <t>win10-16</t>
-  </si>
-  <si>
-    <t>win10-17</t>
-  </si>
-  <si>
-    <t>win10-18</t>
-  </si>
-  <si>
-    <t>win10-19</t>
-  </si>
-  <si>
-    <t>win10-20</t>
-  </si>
-  <si>
-    <t>win10-21</t>
-  </si>
-  <si>
-    <t>win10-22</t>
-  </si>
-  <si>
-    <t>win10-23</t>
-  </si>
-  <si>
-    <t>win10-24</t>
-  </si>
-  <si>
-    <t>win10-25</t>
-  </si>
-  <si>
-    <t>win10-26</t>
-  </si>
-  <si>
-    <t>win10-27</t>
-  </si>
-  <si>
-    <t>win10-28</t>
-  </si>
-  <si>
-    <t>win10-29</t>
-  </si>
-  <si>
-    <t>win10-30</t>
-  </si>
-  <si>
-    <t>win10-31</t>
-  </si>
-  <si>
-    <t>win10-32</t>
-  </si>
-  <si>
-    <t>win10-33</t>
-  </si>
-  <si>
-    <t>win10-34</t>
-  </si>
-  <si>
-    <t>win10-35</t>
-  </si>
-  <si>
-    <t>win10-36</t>
-  </si>
-  <si>
-    <t>win10-37</t>
-  </si>
-  <si>
-    <t>win10-38</t>
-  </si>
-  <si>
-    <t>win10-39</t>
-  </si>
-  <si>
-    <t>win10-40</t>
-  </si>
-  <si>
-    <t>win10-41</t>
-  </si>
-  <si>
-    <t>win10-42</t>
-  </si>
-  <si>
-    <t>win10-43</t>
-  </si>
-  <si>
-    <t>win10-44</t>
-  </si>
-  <si>
-    <t>win10-45</t>
-  </si>
-  <si>
-    <t>win10-46</t>
-  </si>
-  <si>
-    <t>win10-47</t>
-  </si>
-  <si>
-    <t>win10-48</t>
-  </si>
-  <si>
-    <t>win10-49</t>
-  </si>
-  <si>
-    <t>win10-50</t>
-  </si>
-  <si>
-    <t>win10-51</t>
-  </si>
-  <si>
-    <t>win10-52</t>
-  </si>
-  <si>
-    <t>win10-53</t>
-  </si>
-  <si>
-    <t>win10-54</t>
-  </si>
-  <si>
-    <t>win10-55</t>
-  </si>
-  <si>
-    <t>win10-56</t>
-  </si>
-  <si>
-    <t>win10-57</t>
-  </si>
-  <si>
-    <t>win10-58</t>
-  </si>
-  <si>
-    <t>win10-59</t>
-  </si>
-  <si>
-    <t>win10-60</t>
-  </si>
-  <si>
-    <t>win10-61</t>
-  </si>
-  <si>
-    <t>win10-62</t>
-  </si>
-  <si>
-    <t>win10-63</t>
-  </si>
-  <si>
-    <t>win10-64</t>
-  </si>
-  <si>
-    <t>win10-65</t>
-  </si>
-  <si>
-    <t>win10-66</t>
-  </si>
-  <si>
-    <t>win10-67</t>
-  </si>
-  <si>
-    <t>win10-68</t>
-  </si>
-  <si>
-    <t>win10-69</t>
-  </si>
-  <si>
-    <t>win10-70</t>
-  </si>
-  <si>
-    <t>win10-71</t>
-  </si>
-  <si>
-    <t>win11-01</t>
-  </si>
-  <si>
-    <t>win11-02</t>
-  </si>
-  <si>
-    <t>win11-03</t>
-  </si>
-  <si>
-    <t>win11-04</t>
-  </si>
-  <si>
-    <t>win11-05</t>
-  </si>
-  <si>
-    <t>win11-06</t>
-  </si>
-  <si>
-    <t>win11-07</t>
-  </si>
-  <si>
-    <t>win11-08</t>
-  </si>
-  <si>
-    <t>win11-09</t>
-  </si>
-  <si>
-    <t>win11-10</t>
-  </si>
-  <si>
-    <t>win11-11</t>
-  </si>
-  <si>
-    <t>win11-12</t>
-  </si>
-  <si>
-    <t>win11-13</t>
-  </si>
-  <si>
-    <t>win11-14</t>
-  </si>
-  <si>
-    <t>win11-15</t>
-  </si>
-  <si>
-    <t>win11-16</t>
-  </si>
-  <si>
-    <t>win11-17</t>
-  </si>
-  <si>
-    <t>win11-18</t>
-  </si>
-  <si>
-    <t>win11-19</t>
-  </si>
-  <si>
-    <t>win11-20</t>
-  </si>
-  <si>
-    <t>win11-21</t>
-  </si>
-  <si>
-    <t>win11-22</t>
-  </si>
-  <si>
-    <t>win11-23</t>
-  </si>
-  <si>
-    <t>win11-24</t>
-  </si>
-  <si>
-    <t>win11-25</t>
-  </si>
-  <si>
-    <t>win11-26</t>
-  </si>
-  <si>
-    <t>win11-27</t>
-  </si>
-  <si>
-    <t>win11-28</t>
-  </si>
-  <si>
-    <t>win11-29</t>
-  </si>
-  <si>
-    <t>win11-30</t>
-  </si>
-  <si>
-    <t>win11-31</t>
-  </si>
-  <si>
-    <t>win11-32</t>
-  </si>
-  <si>
-    <t>win11-33</t>
-  </si>
-  <si>
-    <t>win11-34</t>
-  </si>
-  <si>
-    <t>win11-35</t>
-  </si>
-  <si>
-    <t>win11-36</t>
-  </si>
-  <si>
-    <t>win11-37</t>
-  </si>
-  <si>
-    <t>win11-38</t>
-  </si>
-  <si>
-    <t>win11-39</t>
-  </si>
-  <si>
-    <t>win11-40</t>
-  </si>
-  <si>
-    <t>win11-41</t>
-  </si>
-  <si>
-    <t>win11-42</t>
-  </si>
-  <si>
-    <t>win11-43</t>
-  </si>
-  <si>
-    <t>win11-44</t>
-  </si>
-  <si>
-    <t>win11-45</t>
-  </si>
-  <si>
-    <t>win11-46</t>
-  </si>
-  <si>
-    <t>win11-47</t>
-  </si>
-  <si>
-    <t>win11-48</t>
-  </si>
-  <si>
-    <t>win11-49</t>
-  </si>
-  <si>
-    <t>win11-50</t>
-  </si>
-  <si>
-    <t>win11-51</t>
-  </si>
-  <si>
-    <t>win11-52</t>
-  </si>
-  <si>
-    <t>win11-53</t>
-  </si>
-  <si>
-    <t>win11-54</t>
-  </si>
-  <si>
-    <t>win11-55</t>
-  </si>
-  <si>
-    <t>win11-56</t>
-  </si>
-  <si>
-    <t>win11-57</t>
-  </si>
-  <si>
-    <t>win11-58</t>
-  </si>
-  <si>
-    <t>win11-59</t>
-  </si>
-  <si>
-    <t>win11-60</t>
-  </si>
-  <si>
-    <t>win11-61</t>
-  </si>
-  <si>
-    <t>win11-62</t>
-  </si>
-  <si>
-    <t>win11-63</t>
-  </si>
-  <si>
-    <t>win11-64</t>
-  </si>
-  <si>
-    <t>win11-65</t>
-  </si>
-  <si>
-    <t>win11-66</t>
-  </si>
-  <si>
-    <t>win11-67</t>
-  </si>
-  <si>
-    <t>win11-68</t>
-  </si>
-  <si>
-    <t>win11-69</t>
-  </si>
-  <si>
-    <t>win11-70</t>
-  </si>
-  <si>
-    <t>win11-71</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>Windows 10</t>
-  </si>
-  <si>
-    <t>Windows11</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +967,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1629,12 +978,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1666,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1676,7 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1992,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6303E3E4-6E1C-4C14-AD58-FC9C0F23570C}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,11 +1347,9 @@
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2025,20 +1365,8 @@
       <c r="E1" t="s">
         <v>292</v>
       </c>
-      <c r="F1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H1" t="s">
-        <v>508</v>
-      </c>
-      <c r="I1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2054,17 +1382,8 @@
       <c r="E2" t="s">
         <v>281</v>
       </c>
-      <c r="G2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2080,17 +1399,8 @@
       <c r="E3" t="s">
         <v>282</v>
       </c>
-      <c r="G3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H3" t="s">
-        <v>366</v>
-      </c>
-      <c r="I3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2106,17 +1416,8 @@
       <c r="E4" t="s">
         <v>283</v>
       </c>
-      <c r="G4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H4" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2132,17 +1433,8 @@
       <c r="E5" t="s">
         <v>284</v>
       </c>
-      <c r="G5" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2158,17 +1450,8 @@
       <c r="E6" t="s">
         <v>285</v>
       </c>
-      <c r="G6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2184,17 +1467,8 @@
       <c r="E7" t="s">
         <v>286</v>
       </c>
-      <c r="G7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7" t="s">
-        <v>370</v>
-      </c>
-      <c r="I7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2210,17 +1484,8 @@
       <c r="E8" t="s">
         <v>287</v>
       </c>
-      <c r="G8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2236,17 +1501,8 @@
       <c r="E9" t="s">
         <v>288</v>
       </c>
-      <c r="G9" t="s">
-        <v>301</v>
-      </c>
-      <c r="H9" t="s">
-        <v>372</v>
-      </c>
-      <c r="I9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2262,17 +1518,8 @@
       <c r="E10" t="s">
         <v>289</v>
       </c>
-      <c r="G10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" t="s">
-        <v>373</v>
-      </c>
-      <c r="I10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2288,17 +1535,8 @@
       <c r="E11" t="s">
         <v>290</v>
       </c>
-      <c r="G11" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11" t="s">
-        <v>374</v>
-      </c>
-      <c r="I11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2314,17 +1552,8 @@
       <c r="E12" t="s">
         <v>281</v>
       </c>
-      <c r="G12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>375</v>
-      </c>
-      <c r="I12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2340,17 +1569,8 @@
       <c r="E13" t="s">
         <v>282</v>
       </c>
-      <c r="G13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" t="s">
-        <v>376</v>
-      </c>
-      <c r="I13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2366,17 +1586,8 @@
       <c r="E14" t="s">
         <v>283</v>
       </c>
-      <c r="G14" t="s">
-        <v>306</v>
-      </c>
-      <c r="H14" t="s">
-        <v>377</v>
-      </c>
-      <c r="I14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2392,17 +1603,8 @@
       <c r="E15" t="s">
         <v>284</v>
       </c>
-      <c r="G15" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" t="s">
-        <v>378</v>
-      </c>
-      <c r="I15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2418,17 +1620,8 @@
       <c r="E16" t="s">
         <v>285</v>
       </c>
-      <c r="G16" t="s">
-        <v>308</v>
-      </c>
-      <c r="H16" t="s">
-        <v>379</v>
-      </c>
-      <c r="I16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2444,17 +1637,8 @@
       <c r="E17" t="s">
         <v>286</v>
       </c>
-      <c r="G17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" t="s">
-        <v>380</v>
-      </c>
-      <c r="I17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2470,17 +1654,8 @@
       <c r="E18" t="s">
         <v>287</v>
       </c>
-      <c r="G18" t="s">
-        <v>310</v>
-      </c>
-      <c r="H18" t="s">
-        <v>381</v>
-      </c>
-      <c r="I18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -2496,17 +1671,8 @@
       <c r="E19" t="s">
         <v>288</v>
       </c>
-      <c r="G19" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" t="s">
-        <v>382</v>
-      </c>
-      <c r="I19" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2522,17 +1688,8 @@
       <c r="E20" t="s">
         <v>289</v>
       </c>
-      <c r="G20" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" t="s">
-        <v>383</v>
-      </c>
-      <c r="I20" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2548,17 +1705,8 @@
       <c r="E21" t="s">
         <v>290</v>
       </c>
-      <c r="G21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H21" t="s">
-        <v>384</v>
-      </c>
-      <c r="I21" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -2574,17 +1722,8 @@
       <c r="E22" t="s">
         <v>281</v>
       </c>
-      <c r="G22" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" t="s">
-        <v>385</v>
-      </c>
-      <c r="I22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -2600,17 +1739,8 @@
       <c r="E23" t="s">
         <v>282</v>
       </c>
-      <c r="G23" t="s">
-        <v>315</v>
-      </c>
-      <c r="H23" t="s">
-        <v>386</v>
-      </c>
-      <c r="I23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2626,17 +1756,8 @@
       <c r="E24" t="s">
         <v>283</v>
       </c>
-      <c r="G24" t="s">
-        <v>316</v>
-      </c>
-      <c r="H24" t="s">
-        <v>387</v>
-      </c>
-      <c r="I24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2652,17 +1773,8 @@
       <c r="E25" t="s">
         <v>284</v>
       </c>
-      <c r="G25" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" t="s">
-        <v>388</v>
-      </c>
-      <c r="I25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2678,17 +1790,8 @@
       <c r="E26" t="s">
         <v>285</v>
       </c>
-      <c r="G26" t="s">
-        <v>318</v>
-      </c>
-      <c r="H26" t="s">
-        <v>389</v>
-      </c>
-      <c r="I26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -2704,17 +1807,8 @@
       <c r="E27" t="s">
         <v>286</v>
       </c>
-      <c r="G27" t="s">
-        <v>319</v>
-      </c>
-      <c r="H27" t="s">
-        <v>390</v>
-      </c>
-      <c r="I27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2730,17 +1824,8 @@
       <c r="E28" t="s">
         <v>287</v>
       </c>
-      <c r="G28" t="s">
-        <v>320</v>
-      </c>
-      <c r="H28" t="s">
-        <v>391</v>
-      </c>
-      <c r="I28" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -2756,17 +1841,8 @@
       <c r="E29" t="s">
         <v>288</v>
       </c>
-      <c r="G29" t="s">
-        <v>321</v>
-      </c>
-      <c r="H29" t="s">
-        <v>392</v>
-      </c>
-      <c r="I29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -2782,17 +1858,8 @@
       <c r="E30" t="s">
         <v>289</v>
       </c>
-      <c r="G30" t="s">
-        <v>322</v>
-      </c>
-      <c r="H30" t="s">
-        <v>393</v>
-      </c>
-      <c r="I30" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -2808,17 +1875,8 @@
       <c r="E31" t="s">
         <v>290</v>
       </c>
-      <c r="G31" t="s">
-        <v>323</v>
-      </c>
-      <c r="H31" t="s">
-        <v>394</v>
-      </c>
-      <c r="I31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -2834,17 +1892,8 @@
       <c r="E32" t="s">
         <v>281</v>
       </c>
-      <c r="G32" t="s">
-        <v>324</v>
-      </c>
-      <c r="H32" t="s">
-        <v>395</v>
-      </c>
-      <c r="I32" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -2860,17 +1909,8 @@
       <c r="E33" t="s">
         <v>282</v>
       </c>
-      <c r="G33" t="s">
-        <v>325</v>
-      </c>
-      <c r="H33" t="s">
-        <v>396</v>
-      </c>
-      <c r="I33" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -2886,17 +1926,8 @@
       <c r="E34" t="s">
         <v>283</v>
       </c>
-      <c r="G34" t="s">
-        <v>326</v>
-      </c>
-      <c r="H34" t="s">
-        <v>397</v>
-      </c>
-      <c r="I34" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -2912,17 +1943,8 @@
       <c r="E35" t="s">
         <v>284</v>
       </c>
-      <c r="G35" t="s">
-        <v>327</v>
-      </c>
-      <c r="H35" t="s">
-        <v>398</v>
-      </c>
-      <c r="I35" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -2938,17 +1960,8 @@
       <c r="E36" t="s">
         <v>285</v>
       </c>
-      <c r="G36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H36" t="s">
-        <v>399</v>
-      </c>
-      <c r="I36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -2964,17 +1977,8 @@
       <c r="E37" t="s">
         <v>286</v>
       </c>
-      <c r="G37" t="s">
-        <v>329</v>
-      </c>
-      <c r="H37" t="s">
-        <v>400</v>
-      </c>
-      <c r="I37" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -2990,17 +1994,8 @@
       <c r="E38" t="s">
         <v>287</v>
       </c>
-      <c r="G38" t="s">
-        <v>330</v>
-      </c>
-      <c r="H38" t="s">
-        <v>401</v>
-      </c>
-      <c r="I38" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -3016,17 +2011,8 @@
       <c r="E39" t="s">
         <v>288</v>
       </c>
-      <c r="G39" t="s">
-        <v>331</v>
-      </c>
-      <c r="H39" t="s">
-        <v>402</v>
-      </c>
-      <c r="I39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -3042,17 +2028,8 @@
       <c r="E40" t="s">
         <v>289</v>
       </c>
-      <c r="G40" t="s">
-        <v>332</v>
-      </c>
-      <c r="H40" t="s">
-        <v>403</v>
-      </c>
-      <c r="I40" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -3068,17 +2045,8 @@
       <c r="E41" t="s">
         <v>290</v>
       </c>
-      <c r="G41" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" t="s">
-        <v>404</v>
-      </c>
-      <c r="I41" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -3094,17 +2062,8 @@
       <c r="E42" t="s">
         <v>281</v>
       </c>
-      <c r="G42" t="s">
-        <v>334</v>
-      </c>
-      <c r="H42" t="s">
-        <v>405</v>
-      </c>
-      <c r="I42" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -3120,17 +2079,8 @@
       <c r="E43" t="s">
         <v>282</v>
       </c>
-      <c r="G43" t="s">
-        <v>335</v>
-      </c>
-      <c r="H43" t="s">
-        <v>406</v>
-      </c>
-      <c r="I43" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -3146,17 +2096,8 @@
       <c r="E44" t="s">
         <v>283</v>
       </c>
-      <c r="G44" t="s">
-        <v>336</v>
-      </c>
-      <c r="H44" t="s">
-        <v>407</v>
-      </c>
-      <c r="I44" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -3172,17 +2113,8 @@
       <c r="E45" t="s">
         <v>284</v>
       </c>
-      <c r="G45" t="s">
-        <v>337</v>
-      </c>
-      <c r="H45" t="s">
-        <v>408</v>
-      </c>
-      <c r="I45" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -3198,17 +2130,8 @@
       <c r="E46" t="s">
         <v>285</v>
       </c>
-      <c r="G46" t="s">
-        <v>338</v>
-      </c>
-      <c r="H46" t="s">
-        <v>409</v>
-      </c>
-      <c r="I46" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -3224,17 +2147,8 @@
       <c r="E47" t="s">
         <v>286</v>
       </c>
-      <c r="G47" t="s">
-        <v>339</v>
-      </c>
-      <c r="H47" t="s">
-        <v>410</v>
-      </c>
-      <c r="I47" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -3250,17 +2164,8 @@
       <c r="E48" t="s">
         <v>287</v>
       </c>
-      <c r="G48" t="s">
-        <v>340</v>
-      </c>
-      <c r="H48" t="s">
-        <v>411</v>
-      </c>
-      <c r="I48" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -3276,17 +2181,8 @@
       <c r="E49" t="s">
         <v>288</v>
       </c>
-      <c r="G49" t="s">
-        <v>341</v>
-      </c>
-      <c r="H49" t="s">
-        <v>412</v>
-      </c>
-      <c r="I49" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>198</v>
       </c>
@@ -3302,17 +2198,8 @@
       <c r="E50" t="s">
         <v>289</v>
       </c>
-      <c r="G50" t="s">
-        <v>342</v>
-      </c>
-      <c r="H50" t="s">
-        <v>413</v>
-      </c>
-      <c r="I50" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>202</v>
       </c>
@@ -3328,17 +2215,8 @@
       <c r="E51" t="s">
         <v>290</v>
       </c>
-      <c r="G51" t="s">
-        <v>343</v>
-      </c>
-      <c r="H51" t="s">
-        <v>414</v>
-      </c>
-      <c r="I51" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -3354,17 +2232,8 @@
       <c r="E52" t="s">
         <v>281</v>
       </c>
-      <c r="G52" t="s">
-        <v>344</v>
-      </c>
-      <c r="H52" t="s">
-        <v>415</v>
-      </c>
-      <c r="I52" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>210</v>
       </c>
@@ -3380,17 +2249,8 @@
       <c r="E53" t="s">
         <v>282</v>
       </c>
-      <c r="G53" t="s">
-        <v>345</v>
-      </c>
-      <c r="H53" t="s">
-        <v>416</v>
-      </c>
-      <c r="I53" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -3406,17 +2266,8 @@
       <c r="E54" t="s">
         <v>283</v>
       </c>
-      <c r="G54" t="s">
-        <v>346</v>
-      </c>
-      <c r="H54" t="s">
-        <v>417</v>
-      </c>
-      <c r="I54" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -3432,17 +2283,8 @@
       <c r="E55" t="s">
         <v>284</v>
       </c>
-      <c r="G55" t="s">
-        <v>347</v>
-      </c>
-      <c r="H55" t="s">
-        <v>418</v>
-      </c>
-      <c r="I55" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -3458,17 +2300,8 @@
       <c r="E56" t="s">
         <v>285</v>
       </c>
-      <c r="G56" t="s">
-        <v>348</v>
-      </c>
-      <c r="H56" t="s">
-        <v>419</v>
-      </c>
-      <c r="I56" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>226</v>
       </c>
@@ -3484,17 +2317,8 @@
       <c r="E57" t="s">
         <v>286</v>
       </c>
-      <c r="G57" t="s">
-        <v>349</v>
-      </c>
-      <c r="H57" t="s">
-        <v>420</v>
-      </c>
-      <c r="I57" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>230</v>
       </c>
@@ -3510,17 +2334,8 @@
       <c r="E58" t="s">
         <v>287</v>
       </c>
-      <c r="G58" t="s">
-        <v>350</v>
-      </c>
-      <c r="H58" t="s">
-        <v>421</v>
-      </c>
-      <c r="I58" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>234</v>
       </c>
@@ -3536,17 +2351,8 @@
       <c r="E59" t="s">
         <v>288</v>
       </c>
-      <c r="G59" t="s">
-        <v>351</v>
-      </c>
-      <c r="H59" t="s">
-        <v>422</v>
-      </c>
-      <c r="I59" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -3562,17 +2368,8 @@
       <c r="E60" t="s">
         <v>289</v>
       </c>
-      <c r="G60" t="s">
-        <v>352</v>
-      </c>
-      <c r="H60" t="s">
-        <v>423</v>
-      </c>
-      <c r="I60" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>242</v>
       </c>
@@ -3588,17 +2385,8 @@
       <c r="E61" t="s">
         <v>290</v>
       </c>
-      <c r="G61" t="s">
-        <v>353</v>
-      </c>
-      <c r="H61" t="s">
-        <v>424</v>
-      </c>
-      <c r="I61" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>246</v>
       </c>
@@ -3614,17 +2402,8 @@
       <c r="E62" t="s">
         <v>281</v>
       </c>
-      <c r="G62" t="s">
-        <v>354</v>
-      </c>
-      <c r="H62" t="s">
-        <v>425</v>
-      </c>
-      <c r="I62" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>250</v>
       </c>
@@ -3640,17 +2419,8 @@
       <c r="E63" t="s">
         <v>282</v>
       </c>
-      <c r="G63" t="s">
-        <v>355</v>
-      </c>
-      <c r="H63" t="s">
-        <v>426</v>
-      </c>
-      <c r="I63" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -3666,17 +2436,8 @@
       <c r="E64" t="s">
         <v>283</v>
       </c>
-      <c r="G64" t="s">
-        <v>356</v>
-      </c>
-      <c r="H64" t="s">
-        <v>427</v>
-      </c>
-      <c r="I64" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>258</v>
       </c>
@@ -3692,175 +2453,124 @@
       <c r="E65" t="s">
         <v>284</v>
       </c>
-      <c r="G65" t="s">
-        <v>357</v>
-      </c>
-      <c r="H65" t="s">
-        <v>428</v>
-      </c>
-      <c r="I65" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="3" t="s">
         <v>261</v>
       </c>
       <c r="E66" t="s">
         <v>285</v>
       </c>
-      <c r="G66" t="s">
-        <v>358</v>
-      </c>
-      <c r="H66" t="s">
-        <v>429</v>
-      </c>
-      <c r="I66" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E67" t="s">
         <v>286</v>
       </c>
-      <c r="G67" t="s">
-        <v>359</v>
-      </c>
-      <c r="H67" t="s">
-        <v>430</v>
-      </c>
-      <c r="I67" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E68" t="s">
         <v>287</v>
       </c>
-      <c r="G68" t="s">
-        <v>360</v>
-      </c>
-      <c r="H68" t="s">
-        <v>431</v>
-      </c>
-      <c r="I68" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="B69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="3" t="s">
         <v>267</v>
       </c>
       <c r="E69" t="s">
         <v>288</v>
       </c>
-      <c r="G69" t="s">
-        <v>361</v>
-      </c>
-      <c r="H69" t="s">
-        <v>432</v>
-      </c>
-      <c r="I69" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="3" t="s">
         <v>269</v>
       </c>
       <c r="E70" t="s">
         <v>289</v>
       </c>
-      <c r="G70" t="s">
-        <v>362</v>
-      </c>
-      <c r="H70" t="s">
-        <v>433</v>
-      </c>
-      <c r="I70" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="3" t="s">
         <v>271</v>
       </c>
       <c r="E71" t="s">
         <v>290</v>
       </c>
-      <c r="G71" t="s">
-        <v>363</v>
-      </c>
-      <c r="H71" t="s">
-        <v>434</v>
-      </c>
-      <c r="I71" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="B72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="3" t="s">
         <v>273</v>
       </c>
       <c r="E72" t="s">
         <v>291</v>
-      </c>
-      <c r="G72" t="s">
-        <v>364</v>
-      </c>
-      <c r="H72" t="s">
-        <v>435</v>
-      </c>
-      <c r="I72" t="s">
-        <v>506</v>
       </c>
     </row>
   </sheetData>
